--- a/DOM_Banner/output/dept_banner/Jawad Bilal_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Jawad Bilal_2022.xlsx
@@ -912,7 +912,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Antiphospholipid syndrome may cause recurrent thromboembolic events of the microvasculature, arteries and veins. It is also characterised by a range of neurological and psychiatric dysfunctions, as well as complications during pregnancy. Patients with triple-positive antiphospholipid syndrome have persistently elevated levels of lupus anticoagulant (LA), anti-beta-2-glycoprotein I (B2GPI) and anticardiolipin antibodies (aCL). These patients also have a higher risk of initial or recurrent thrombosis.We report the case of a 36-year-old man who was presented with progressive memory loss and recurrent stroke. He had persistently elevated antiphospholipid antibody titres (LA, aCL-immunoglobulin G and B2GPI antibodies). These features persisted while the patient was receiving low-dose aspirin (LDA), 81mg daily. Vitamin K antagonist (VKA); warfarin, with the international normalised ratio (INR) maintained at 2-3 was then added to his treatment regimen. The VKA dose was maintained at - a higher therapeutic INR while LDA administration was continued to achieve resolution of the patient's symptoms.</t>
+          <t>Antiphospholipid syndrome may cause recurrent thromboembolic events of the microvasculature, arteries and veins. It is also characterised by a range of neurological and psychiatric dysfunctions, as well as complications during pregnancy. Patients with triple-positive antiphospholipid syndrome have persistently elevated levels of lupus anticoagulant (LA), anti-beta-2-glycoprotein I (B2GPI) and anticardiolipin antibodies (aCL). These patients also have a higher risk of initial or recurrent thrombosis. We report the case of a 36-year-old man who was presented with progressive memory loss and recurrent stroke. He had persistently elevated antiphospholipid antibody titres (LA, aCL-immunoglobulin G and B2GPI antibodies). These features persisted while the patient was receiving low-dose aspirin (LDA), 81mg daily. Vitamin K antagonist (VKA); warfarin, with the international normalised ratio (INR) maintained at 2–3 was then added to his treatment regimen. The VKA dose was maintained at - a higher therapeutic INR while LDA administration was continued to achieve resolution of the patient’s symptoms.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3005615259", "https://openalex.org/W2623336212", "https://openalex.org/W1967106520", "https://openalex.org/W3016331405", "https://openalex.org/W4221074861", "https://openalex.org/W2043893283", "https://openalex.org/W2558859036", "https://openalex.org/W2409719433", "https://openalex.org/W2411033921", "https://openalex.org/W2169002807")</t>
+          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W3031052312", "https://openalex.org/W4389568370", "https://openalex.org/W3032375762", "https://openalex.org/W1995515455", "https://openalex.org/W2080531066", "https://openalex.org/W2586801360", "https://openalex.org/W3108674512", "https://openalex.org/W1506200166", "https://openalex.org/W1489783725")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Jawad Bilal_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Jawad Bilal_2022.xlsx
@@ -748,22 +748,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S13698240</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2151-464X</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Jawad Bilal_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Jawad Bilal_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223480617</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Tanezumab for the treatment of osteoarthritis pain</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Drugs of Today</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Prous Science</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1358/dot.2022.58.4.3352752</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35412532</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1358/dot.2022.58.4.3352752</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Rush University Medical Center  Chicago IL; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology Brigham and Women’s Hospital  Boston MA; Division of Rheumatology University of Vienna  Vienna Austria; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Brigham and Women's Hospital, Boston, Massachusetts; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Brigham and Women's Hospital, Boston, Massachusetts; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206077688</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Implementing a &lt;scp&gt;Treat‐to‐Target&lt;/scp&gt; Approach for Rheumatoid Arthritis During the &lt;scp&gt;COVID&lt;/scp&gt; ‐19 Pandemic: Results of a Virtual Learning Collaborative Program</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-02-04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24830</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35119779</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.24830</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Internal Medicine, Burrell College of Osteopathic Medicine, Las Cruces, New Mexico, USA; Rheumatology, University of Arizona, Tucson, Arizona, USA; Haematology/Oncology, Burrell College of Osteopathic Medicine, Las Cruces, New Mexico, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221074861</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Recurrent strokes and memory loss in a patient with triple-positive antiphospholipid antibody syndrome</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Case Reports</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bcr-2021-246104</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35338038</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bcr-2021-246104</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220864196</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>April 2022 Critical Care Case of the Month: Bullous Skin Lesions in the ICU</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.13175/swjpccs014-22</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.13175/swjpccs014-22</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
